--- a/王语晗/tp_shop.xlsx
+++ b/王语晗/tp_shop.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GradeThreeTermFirst\RealityTraining\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,29 +54,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13988888881</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13888888882</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13788888888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ab1234</t>
   </si>
   <si>
-    <t>13688888888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abc%$&amp;</t>
   </si>
   <si>
     <t>@#$%&amp;*</t>
+  </si>
+  <si>
+    <t>15988888881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15888888882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15788888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15688888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15588888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -409,10 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -423,7 +428,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -440,7 +445,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -457,16 +462,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -474,16 +479,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -491,16 +496,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -509,5 +514,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>